--- a/src/test/resources/files/AddArticle.xlsx
+++ b/src/test/resources/files/AddArticle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="0" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="0" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="74">
   <si>
     <t>Pub</t>
   </si>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,12 +1194,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
     <col min="5" max="5" width="25.21875" customWidth="1"/>
   </cols>
@@ -1226,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>173012</v>
+        <v>902594958</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1704,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1741,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1785,23 +1786,6 @@
         <v>1730</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>902594958</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>1730</v>
-      </c>
-      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
